--- a/tools/src/test/java/com/gitee/qdbp/tools/excel/员工信息导入.2.xlsx
+++ b/tools/src/test/java/com/gitee/qdbp/tools/excel/员工信息导入.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="13650"/>
+    <workbookView windowWidth="27750" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="开发" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -228,21 +228,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -251,6 +267,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -259,6 +290,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -266,21 +318,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,37 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -333,45 +364,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -392,19 +392,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,163 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,45 +675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -741,8 +702,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,27 +772,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,133 +790,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1349,7 +1349,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1543,7 +1543,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="26">
         <f ca="1">NOW()</f>
-        <v>43404.9069675926</v>
+        <v>43409.6493402778</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>20</v>
@@ -1675,7 +1675,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1796,7 +1796,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="22">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>27</v>
@@ -1823,7 +1823,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="22">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
